--- a/test cases/messenger/case 10/all_ip.xlsx
+++ b/test cases/messenger/case 10/all_ip.xlsx
@@ -1,20 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26626"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sam\Desktop\WebRTC_Testbench\test cases\Messenger\case 10\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F71E651F-92FD-42DC-AAE2-58CB2C8CD8E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A47DB0F1-3ADF-4B55-BB53-0636BAF56D88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-132" yWindow="-132" windowWidth="30984" windowHeight="16824" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38325" yWindow="6645" windowWidth="16515" windowHeight="11205" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$G$1:$H$248</definedName>
+  </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -25,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="42">
   <si>
     <t>caller</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -135,6 +138,29 @@
   </si>
   <si>
     <t>2409:8180:404:26aa:dc6a:38da:cfaf:fd09</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2a03:2880:f07e:9:face:b00c:0:3</t>
+  </si>
+  <si>
+    <t>2409:8180:404:26aa:dc6a:38da:cfaf:fd09</t>
+  </si>
+  <si>
+    <t>73.16.29.250</t>
+  </si>
+  <si>
+    <t>107.122.192.98</t>
+  </si>
+  <si>
+    <t>224.0.0.251</t>
+  </si>
+  <si>
+    <t>2a03:2880:f031:6:face:b00c:0:24d9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2a03:2880:f212:1c6:face:b00c:0:74fd</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -165,7 +191,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -175,6 +201,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -191,9 +223,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -476,19 +514,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E23"/>
+  <dimension ref="A1:H121"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:E12"/>
+    <sheetView tabSelected="1" topLeftCell="G154" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G114" sqref="G114"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="41" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="4.77734375" customWidth="1"/>
     <col min="4" max="4" width="4.77734375" customWidth="1"/>
+    <col min="6" max="6" width="4.33203125" customWidth="1"/>
+    <col min="7" max="7" width="41" customWidth="1"/>
+    <col min="8" max="8" width="9.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -499,7 +540,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>14</v>
       </c>
@@ -509,64 +550,138 @@
       <c r="E2" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G2" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2" s="3">
+        <v>60227</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>15</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G3" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H3" s="3">
+        <v>60228</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>16</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G4" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H4" s="3">
+        <v>60259</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="E5" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G5" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H5" s="3">
+        <v>60260</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="E6" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G6" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H6" s="3">
+        <v>52704</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="E7" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G7" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H7" s="3">
+        <v>55745</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="E8" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G8" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H8" s="3">
+        <v>52947</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="E9" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G9" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H9" s="3">
+        <v>54034</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="E10" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G10" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H10" s="3">
+        <v>60456</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="E11" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G11" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H11" s="3">
+        <v>59385</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="E12" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G12" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H12" s="3">
+        <v>5353</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G13" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H13" s="3">
+        <v>5353</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>34</v>
       </c>
@@ -576,68 +691,920 @@
       <c r="E14" s="1" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G14" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H14" s="3">
+        <v>57713</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>27</v>
       </c>
       <c r="E15" s="1" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G15" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H15" s="3">
+        <v>57714</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>28</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G16" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H16" s="3">
+        <v>55538</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>29</v>
       </c>
       <c r="E17" s="1" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G17" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H17" s="3">
+        <v>59300</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>30</v>
       </c>
       <c r="E18" s="1" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G18" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H18" s="3">
+        <v>57711</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>31</v>
       </c>
       <c r="E19" s="1" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G19" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H19" s="3">
+        <v>61880</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="E20" s="1" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G20" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H20" s="3">
+        <v>54789</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="E21" s="1" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G21" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H21" s="3">
+        <v>60235</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="E22" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G22" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H22" s="3">
+        <v>60236</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="E23" s="1" t="s">
         <v>32</v>
       </c>
+      <c r="G23" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H23" s="3">
+        <v>60247</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E24" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="G24" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H24" s="3">
+        <v>59679</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G25" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H25" s="3">
+        <v>63066</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G26" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H26" s="3">
+        <v>54754</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G27" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H27" s="3">
+        <v>60264</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G28" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H28" s="3">
+        <v>50637</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G29" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="H29" s="3">
+        <v>7629</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G30" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="H30" s="3">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G31" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H31" s="3">
+        <v>3478</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H32" s="3">
+        <v>3478</v>
+      </c>
+    </row>
+    <row r="33" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H33" s="3">
+        <v>3478</v>
+      </c>
+    </row>
+    <row r="34" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G34" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H34" s="3">
+        <v>3479</v>
+      </c>
+    </row>
+    <row r="35" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G35" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H35" s="3">
+        <v>8080</v>
+      </c>
+    </row>
+    <row r="36" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G36" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H36" s="3">
+        <v>40003</v>
+      </c>
+    </row>
+    <row r="37" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G37" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H37" s="3">
+        <v>54389</v>
+      </c>
+    </row>
+    <row r="38" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G38" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H38" s="3">
+        <v>56032</v>
+      </c>
+    </row>
+    <row r="39" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G39" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H39" s="3">
+        <v>59277</v>
+      </c>
+    </row>
+    <row r="40" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G40" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H40" s="3">
+        <v>58455</v>
+      </c>
+    </row>
+    <row r="41" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G41" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H41" s="3">
+        <v>54587</v>
+      </c>
+    </row>
+    <row r="42" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G42" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H42" s="3">
+        <v>60241</v>
+      </c>
+    </row>
+    <row r="43" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G43" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H43" s="3">
+        <v>60242</v>
+      </c>
+    </row>
+    <row r="44" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G44" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H44" s="3">
+        <v>60243</v>
+      </c>
+    </row>
+    <row r="45" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G45" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H45" s="3">
+        <v>60244</v>
+      </c>
+    </row>
+    <row r="46" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G46" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H46" s="3">
+        <v>58562</v>
+      </c>
+    </row>
+    <row r="47" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G47" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H47" s="3">
+        <v>53269</v>
+      </c>
+    </row>
+    <row r="48" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G48" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H48" s="3">
+        <v>51014</v>
+      </c>
+    </row>
+    <row r="49" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G49" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H49" s="3">
+        <v>50055</v>
+      </c>
+    </row>
+    <row r="50" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G50" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H50" s="3">
+        <v>61145</v>
+      </c>
+    </row>
+    <row r="51" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G51" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H51" s="3">
+        <v>50885</v>
+      </c>
+    </row>
+    <row r="52" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G52" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H52" s="3">
+        <v>53476</v>
+      </c>
+    </row>
+    <row r="53" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G53" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H53" s="3">
+        <v>61124</v>
+      </c>
+    </row>
+    <row r="54" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G54" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H54" s="3">
+        <v>62552</v>
+      </c>
+    </row>
+    <row r="55" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G55" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H55" s="3">
+        <v>59601</v>
+      </c>
+    </row>
+    <row r="56" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G56" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="H56" s="3">
+        <v>5353</v>
+      </c>
+    </row>
+    <row r="57" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G57" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="H57" s="3">
+        <v>60233</v>
+      </c>
+    </row>
+    <row r="58" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G58" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="H58" s="3">
+        <v>60234</v>
+      </c>
+    </row>
+    <row r="59" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G59" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="H59" s="3">
+        <v>64285</v>
+      </c>
+    </row>
+    <row r="60" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G60" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="H60" s="3">
+        <v>64079</v>
+      </c>
+    </row>
+    <row r="61" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G61" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="H61" s="3">
+        <v>58047</v>
+      </c>
+    </row>
+    <row r="62" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G62" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="H62" s="3">
+        <v>63851</v>
+      </c>
+    </row>
+    <row r="63" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G63" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="H63" s="3">
+        <v>64756</v>
+      </c>
+    </row>
+    <row r="64" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G64" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H64" s="3">
+        <v>60231</v>
+      </c>
+    </row>
+    <row r="65" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G65" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H65" s="3">
+        <v>60232</v>
+      </c>
+    </row>
+    <row r="66" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G66" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H66" s="3">
+        <v>59885</v>
+      </c>
+    </row>
+    <row r="67" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G67" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H67" s="3">
+        <v>52896</v>
+      </c>
+    </row>
+    <row r="68" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G68" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H68" s="3">
+        <v>49734</v>
+      </c>
+    </row>
+    <row r="69" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G69" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H69" s="3">
+        <v>52719</v>
+      </c>
+    </row>
+    <row r="70" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G70" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H70" s="3">
+        <v>61166</v>
+      </c>
+    </row>
+    <row r="71" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G71" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H71" s="3">
+        <v>53290</v>
+      </c>
+    </row>
+    <row r="72" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G72" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H72" s="3">
+        <v>57711</v>
+      </c>
+    </row>
+    <row r="73" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G73" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H73" s="3">
+        <v>57712</v>
+      </c>
+    </row>
+    <row r="74" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G74" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H74" s="3">
+        <v>62479</v>
+      </c>
+    </row>
+    <row r="75" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G75" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H75" s="3">
+        <v>61859</v>
+      </c>
+    </row>
+    <row r="76" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G76" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H76" s="3">
+        <v>53588</v>
+      </c>
+    </row>
+    <row r="77" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G77" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H77" s="3">
+        <v>58039</v>
+      </c>
+    </row>
+    <row r="78" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G78" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="H78" s="3">
+        <v>60257</v>
+      </c>
+    </row>
+    <row r="79" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G79" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="H79" s="3">
+        <v>60258</v>
+      </c>
+    </row>
+    <row r="80" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G80" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="H80" s="3">
+        <v>64382</v>
+      </c>
+    </row>
+    <row r="81" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G81" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="H81" s="3">
+        <v>60225</v>
+      </c>
+    </row>
+    <row r="82" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G82" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="H82" s="3">
+        <v>60226</v>
+      </c>
+    </row>
+    <row r="83" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G83" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="H83" s="3">
+        <v>55293</v>
+      </c>
+    </row>
+    <row r="84" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G84" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="H84" s="3">
+        <v>54607</v>
+      </c>
+    </row>
+    <row r="85" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G85" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="H85" s="3">
+        <v>62342</v>
+      </c>
+    </row>
+    <row r="86" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G86" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="H86" s="3">
+        <v>64432</v>
+      </c>
+    </row>
+    <row r="87" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G87" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="H87" s="3">
+        <v>56107</v>
+      </c>
+    </row>
+    <row r="88" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G88" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="H88" s="3">
+        <v>3478</v>
+      </c>
+    </row>
+    <row r="89" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G89" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H89" s="3">
+        <v>3478</v>
+      </c>
+    </row>
+    <row r="90" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G90" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="H90" s="3">
+        <v>3478</v>
+      </c>
+    </row>
+    <row r="91" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G91" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="H91" s="3">
+        <v>3478</v>
+      </c>
+    </row>
+    <row r="92" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G92" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H92" s="3">
+        <v>3478</v>
+      </c>
+    </row>
+    <row r="93" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G93" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="H93" s="3">
+        <v>3479</v>
+      </c>
+    </row>
+    <row r="94" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G94" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="H94" s="3">
+        <v>8080</v>
+      </c>
+    </row>
+    <row r="95" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G95" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="H95" s="3">
+        <v>40003</v>
+      </c>
+    </row>
+    <row r="96" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G96" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H96" s="3">
+        <v>3478</v>
+      </c>
+    </row>
+    <row r="97" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G97" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="H97" s="3">
+        <v>55538</v>
+      </c>
+    </row>
+    <row r="98" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G98" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="H98" s="3">
+        <v>52704</v>
+      </c>
+    </row>
+    <row r="99" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G99" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="H99" s="3">
+        <v>59385</v>
+      </c>
+    </row>
+    <row r="100" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G100" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="H100" s="3">
+        <v>60237</v>
+      </c>
+    </row>
+    <row r="101" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G101" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="H101" s="3">
+        <v>60238</v>
+      </c>
+    </row>
+    <row r="102" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G102" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="H102" s="3">
+        <v>60248</v>
+      </c>
+    </row>
+    <row r="103" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G103" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="H103" s="3">
+        <v>60249</v>
+      </c>
+    </row>
+    <row r="104" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G104" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="H104" s="3">
+        <v>60392</v>
+      </c>
+    </row>
+    <row r="105" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G105" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="H105" s="3">
+        <v>54361</v>
+      </c>
+    </row>
+    <row r="106" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G106" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="H106" s="3">
+        <v>61023</v>
+      </c>
+    </row>
+    <row r="107" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G107" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="H107" s="3">
+        <v>49802</v>
+      </c>
+    </row>
+    <row r="108" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G108" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="H108" s="3">
+        <v>60733</v>
+      </c>
+    </row>
+    <row r="109" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G109" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="H109" s="3">
+        <v>52725</v>
+      </c>
+    </row>
+    <row r="110" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G110" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="H110" s="3">
+        <v>64427</v>
+      </c>
+    </row>
+    <row r="111" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G111" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="H111" s="3">
+        <v>58670</v>
+      </c>
+    </row>
+    <row r="112" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G112" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="H112" s="3">
+        <v>50280</v>
+      </c>
+    </row>
+    <row r="113" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G113" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="H113" s="3">
+        <v>52185</v>
+      </c>
+    </row>
+    <row r="114" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G114" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="H114" s="3">
+        <v>60239</v>
+      </c>
+    </row>
+    <row r="115" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G115" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="H115" s="3">
+        <v>60240</v>
+      </c>
+    </row>
+    <row r="116" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G116" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="H116" s="3">
+        <v>53851</v>
+      </c>
+    </row>
+    <row r="117" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G117" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="H117" s="3">
+        <v>63278</v>
+      </c>
+    </row>
+    <row r="118" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G118" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="H118" s="3">
+        <v>60704</v>
+      </c>
+    </row>
+    <row r="119" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G119" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="H119" s="3">
+        <v>60510</v>
+      </c>
+    </row>
+    <row r="120" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G120" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="H120" s="3">
+        <v>58864</v>
+      </c>
+    </row>
+    <row r="121" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G121" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="H121" s="3">
+        <v>59542</v>
+      </c>
     </row>
   </sheetData>
+  <autoFilter ref="G1:H248" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="G2:H248">
+      <sortCondition ref="G1:G248"/>
+    </sortState>
+  </autoFilter>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
